--- a/FuzzyMatch/English List of districts. Arabic names of districts (Aug 20 2025).xlsx
+++ b/FuzzyMatch/English List of districts. Arabic names of districts (Aug 20 2025).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CC438-DFB2-44F6-AFA2-216BEA9DCF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E13497-601E-438C-B5C6-D7C5C399BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4344" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arabic To English" sheetId="10" r:id="rId1"/>
@@ -10248,11 +10248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FA18D0-88D2-48E5-852E-11D9411DA0D5}">
-  <dimension ref="A1:D1629"/>
+  <dimension ref="A1:H1629"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1633" sqref="B1633"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10263,7 +10263,7 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10290,8 +10290,12 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>COUNTA(B:B)</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10305,7 +10309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -10375,7 +10379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -10389,7 +10393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -10417,7 +10421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -10431,7 +10435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1851</v>
       </c>
@@ -31073,11 +31077,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDF435E-AB8C-49BD-AF1A-491CFF9A6911}">
-  <dimension ref="A1:E1580"/>
+  <dimension ref="A1:G1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31089,7 +31093,7 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -31106,7 +31110,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2262</v>
       </c>
@@ -31119,8 +31123,12 @@
       <c r="D2" t="s">
         <v>2263</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>COUNTA(B:B)</f>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2264</v>
       </c>
@@ -31131,7 +31139,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2265</v>
       </c>
@@ -31145,7 +31153,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1897</v>
       </c>
@@ -31159,7 +31167,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1919</v>
       </c>
@@ -31173,7 +31181,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2266</v>
       </c>
@@ -31184,7 +31192,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -31198,7 +31206,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1066</v>
       </c>
@@ -31212,7 +31220,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2267</v>
       </c>
@@ -31223,7 +31231,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2268</v>
       </c>
@@ -31234,7 +31242,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2269</v>
       </c>
@@ -31245,7 +31253,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>929</v>
       </c>
@@ -31259,7 +31267,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>931</v>
       </c>
@@ -31273,7 +31281,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2270</v>
       </c>
@@ -31284,7 +31292,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2271</v>
       </c>
